--- a/data/samples/sample_ext_quibit_062024.xlsx
+++ b/data/samples/sample_ext_quibit_062024.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/data/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B96EC9-B65C-5C48-A8A5-1A08BCD42633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA64CD2-1D40-DA4E-985F-B1F6B27C8DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
+    <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" activeTab="4" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zymo &amp; Qubit Protocols" sheetId="3" r:id="rId1"/>
     <sheet name="Extraction" sheetId="2" r:id="rId2"/>
     <sheet name="Qubit" sheetId="1" r:id="rId3"/>
     <sheet name="Final Sample Concentrations" sheetId="4" r:id="rId4"/>
+    <sheet name="locations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
     <t>too high</t>
   </si>
@@ -117,13 +118,43 @@
   </si>
   <si>
     <t>correct sample tube labeled with number only, alphanumeric label indicated here to differentiate Quibit results, unused samples discarded 6/7/24</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>PAH_category</t>
+  </si>
+  <si>
+    <t>Elliott Bay - Myrtle Edwards</t>
+  </si>
+  <si>
+    <t>Seattle Aquarium</t>
+  </si>
+  <si>
+    <t>Smith Cove</t>
+  </si>
+  <si>
+    <t>Hood Canal</t>
+  </si>
+  <si>
+    <t>Aiston Preserve</t>
+  </si>
+  <si>
+    <t>Broad Spit</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +169,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -173,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,6 +229,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5493CC-5681-4C4F-94E4-043E23F2D763}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2390,7 +2428,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2507,208 +2545,538 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2">
         <v>49</v>
       </c>
       <c r="C11">
-        <v>129</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>516</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2">
         <v>49</v>
       </c>
       <c r="C13">
-        <v>154</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2">
         <v>49</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2">
         <v>49</v>
       </c>
       <c r="C15">
-        <v>396</v>
+        <v>284</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>106</v>
-      </c>
-      <c r="B16" s="2">
-        <v>49</v>
-      </c>
-      <c r="C16">
-        <v>284</v>
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>770</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>107</v>
-      </c>
-      <c r="B17">
+        <v>109</v>
+      </c>
+      <c r="B17" s="2">
         <v>49</v>
       </c>
       <c r="C17" s="2">
-        <v>770</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="B18" s="2">
         <v>49</v>
       </c>
       <c r="C18" s="2">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>239</v>
-      </c>
-      <c r="B19" s="2">
+        <v>240</v>
+      </c>
+      <c r="B19">
         <v>49</v>
       </c>
       <c r="C19" s="2">
-        <v>216</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>240</v>
-      </c>
-      <c r="B20">
+        <v>241</v>
+      </c>
+      <c r="B20" s="2">
         <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>68.599999999999994</v>
+        <v>344</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>241</v>
-      </c>
-      <c r="B21" s="2">
+        <v>242</v>
+      </c>
+      <c r="B21">
         <v>49</v>
       </c>
       <c r="C21" s="2">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>242</v>
-      </c>
-      <c r="B22">
+        <v>269</v>
+      </c>
+      <c r="B22" s="2">
         <v>49</v>
       </c>
       <c r="C22" s="2">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B23" s="2">
         <v>49</v>
       </c>
       <c r="C23" s="2">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2">
         <v>49</v>
       </c>
       <c r="C24" s="2">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2">
         <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>272</v>
-      </c>
-      <c r="B26" s="2">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2">
-        <v>148</v>
-      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D304515-6F02-0E45-86C2-4DC94711A3D8}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>92</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>93</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>94</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>95</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>105</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>106</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>107</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>109</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>239</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>240</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>241</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>242</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>269</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>270</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>271</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>272</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/samples/sample_ext_quibit_062024.xlsx
+++ b/data/samples/sample_ext_quibit_062024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/data/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA64CD2-1D40-DA4E-985F-B1F6B27C8DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98D90A-CDA9-A842-BF34-87EDBF8D6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" activeTab="4" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
   <si>
     <t>too high</t>
   </si>
@@ -148,13 +148,16 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>DIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,8 +179,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,6 +246,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2744,26 +2770,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D304515-6F02-0E45-86C2-4DC94711A3D8}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2776,6 +2806,9 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
+      <c r="D2" s="11">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2787,6 +2820,9 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
+      <c r="D3" s="9">
+        <v>2.8</v>
+      </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
@@ -2800,6 +2836,9 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
@@ -2813,6 +2852,9 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
+      <c r="D5" s="9">
+        <v>2.5</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
@@ -2826,6 +2868,9 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
+      <c r="D6" s="9">
+        <v>2.6</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
@@ -2839,6 +2884,9 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
@@ -2852,6 +2900,9 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
+      <c r="D8" s="9">
+        <v>1.3</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
@@ -2865,6 +2916,9 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
+      <c r="D9" s="11">
+        <v>3.2</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
@@ -2878,6 +2932,9 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
+      <c r="D10" s="9">
+        <v>1.8</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
@@ -2891,6 +2948,9 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
+      <c r="D11" s="11">
+        <v>3.9</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
@@ -2904,6 +2964,9 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
+      <c r="D12" s="9">
+        <v>2.9</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
@@ -2917,6 +2980,9 @@
       <c r="C13" t="s">
         <v>34</v>
       </c>
+      <c r="D13" s="9">
+        <v>1.6</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
@@ -2930,6 +2996,9 @@
       <c r="C14" t="s">
         <v>35</v>
       </c>
+      <c r="D14" s="11">
+        <v>5.8</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
@@ -2943,6 +3012,9 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
+      <c r="D15" s="11">
+        <v>3.3</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
@@ -2956,6 +3028,9 @@
       <c r="C16" t="s">
         <v>35</v>
       </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
@@ -2969,6 +3044,9 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
+      <c r="D17" s="9">
+        <v>2.7</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
@@ -2982,6 +3060,9 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
+      <c r="D18" s="9">
+        <v>2.9</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
@@ -2995,6 +3076,9 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
+      <c r="D19" s="9">
+        <v>1.3</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
@@ -3008,6 +3092,9 @@
       <c r="C20" t="s">
         <v>35</v>
       </c>
+      <c r="D20" s="9">
+        <v>2.7</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
@@ -3021,6 +3108,9 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
+      <c r="D21" s="9">
+        <v>1.6</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
@@ -3034,6 +3124,9 @@
       <c r="C22" t="s">
         <v>35</v>
       </c>
+      <c r="D22" s="9">
+        <v>2.8</v>
+      </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
@@ -3047,6 +3140,9 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
+      <c r="D23" s="9">
+        <v>2.4</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
@@ -3060,6 +3156,9 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
+      <c r="D24" s="9">
+        <v>1.9</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
@@ -3073,8 +3172,14 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
+      <c r="D25" s="9">
+        <v>1.9</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/samples/sample_ext_quibit_062024.xlsx
+++ b/data/samples/sample_ext_quibit_062024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/data/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA98D90A-CDA9-A842-BF34-87EDBF8D6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A412DC-28F3-2741-94F4-06FD08309399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" activeTab="4" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
   </bookViews>
@@ -2772,7 +2772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D304515-6F02-0E45-86C2-4DC94711A3D8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/data/samples/sample_ext_quibit_062024.xlsx
+++ b/data/samples/sample_ext_quibit_062024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/data/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A412DC-28F3-2741-94F4-06FD08309399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CBC83-2EDC-9D45-A7EB-E1425F3FA3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36200" yWindow="880" windowWidth="27660" windowHeight="16940" activeTab="4" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
+    <workbookView xWindow="1280" yWindow="760" windowWidth="16740" windowHeight="21580" xr2:uid="{C950268E-5272-264D-BBD9-8DA1D026AA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zymo &amp; Qubit Protocols" sheetId="3" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -246,10 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5493CC-5681-4C4F-94E4-043E23F2D763}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2770,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D304515-6F02-0E45-86C2-4DC94711A3D8}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2783,269 +2782,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11">
-        <v>3.3</v>
+      <c r="D2" s="9">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="9">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11">
-        <v>3</v>
+      <c r="D4" s="9">
+        <v>1.5</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="9">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="11">
-        <v>3.2</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.9</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11">
-        <v>3.9</v>
+      <c r="D11" s="9">
+        <v>2.5</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="9">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11">
-        <v>5.8</v>
+      <c r="D14" s="9">
+        <v>2.7</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11">
-        <v>3.3</v>
+        <v>34</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.8</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11">
-        <v>4</v>
+      <c r="D16" s="9">
+        <v>2.8</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="9">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -3068,120 +3067,120 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1.3</v>
+        <v>34</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2.7</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3.2</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>242</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1.6</v>
+        <v>34</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3.3</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9">
-        <v>2.8</v>
+      <c r="D22" s="10">
+        <v>3.3</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2.4</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3.9</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="9">
-        <v>1.9</v>
+      <c r="D24" s="10">
+        <v>4</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="9">
-        <v>1.9</v>
+      <c r="D25" s="10">
+        <v>5.8</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="10"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition ref="D2:D25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>